--- a/medicine/Mort/Peine_de_mort_au_Bangladesh/Peine_de_mort_au_Bangladesh.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Bangladesh/Peine_de_mort_au_Bangladesh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Bangladesh, la peine de mort est une sanction légale prévue par le code pénal. Elle est activement appliquée.
 </t>
@@ -511,11 +523,13 @@
           <t>Crimes punis de la peine de mort</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les crimes passibles de la peine de morts sont[1] :
-le meurtre[2],
-les infractions liées à la drogue[3],
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les crimes passibles de la peine de morts sont :
+le meurtre,
+les infractions liées à la drogue,
 la sodomie,
 l'enlèvement
 la traite d'enfants à des fins immorales ou illégales,
@@ -533,7 +547,7 @@
 le parjure causant une exécution,
 l'espionnage,
 les crimes de guerre,
-la trahison[4].</t>
+la trahison.</t>
         </is>
       </c>
     </row>
@@ -563,10 +577,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Procédure judiciaire
-Recours en grâce
-Exécution
-Le code pénal établir que la sentence doit être exécutée par pendaison[5]. La cour suprême a cependant établit que l'accusé peut être condamné à être fusillé[6].
+          <t>Exécution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le code pénal établir que la sentence doit être exécutée par pendaison. La cour suprême a cependant établit que l'accusé peut être condamné à être fusillé.
 </t>
         </is>
       </c>
@@ -597,8 +614,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Condamnés célèbres
-Le 29 octobre 2014, le Tribunal international des crimes du Bangladesh[7] condamne à mort l'ancien ministre Motiur Rahman Nizami pour crime de guerre. La sentence a été exécutée par pendaison le 10 mai 2016[8].
+          <t>Condamnés célèbres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 octobre 2014, le Tribunal international des crimes du Bangladesh condamne à mort l'ancien ministre Motiur Rahman Nizami pour crime de guerre. La sentence a été exécutée par pendaison le 10 mai 2016.
 </t>
         </is>
       </c>
@@ -628,6 +650,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -653,10 +677,12 @@
           <t>Condamnations à mort récentes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le 8 décembre 2021, 20 étudiants ont été condamnés à mort (et 5 autres ont été condamnés à la prison à vie) pour avoir lynché un autre étudiant sur le campus de l'université d'ingénierie et de technologie du Bangladesh[9]
-Le 31 janvier 2022, deux officiers de police sont condamnés à mort pour le meurtre d'un militaire haut gradé[10].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le 8 décembre 2021, 20 étudiants ont été condamnés à mort (et 5 autres ont été condamnés à la prison à vie) pour avoir lynché un autre étudiant sur le campus de l'université d'ingénierie et de technologie du Bangladesh
+Le 31 janvier 2022, deux officiers de police sont condamnés à mort pour le meurtre d'un militaire haut gradé.</t>
         </is>
       </c>
     </row>
@@ -685,6 +711,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
